--- a/06.xlsx
+++ b/06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L-PWDocument\Downloads\1-python\PythonWorkspace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5B04EB-EE26-4518-BB8E-FB1F2C618B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F212740-D5F6-4012-BB99-9C12FDF47A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,7 +905,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
